--- a/cypress/downloads/order-invoice_postmanTestName.xlsx
+++ b/cypress/downloads/order-invoice_postmanTestName.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>651f34a97244490f95c51816</v>
+        <v>6526219e7244490f95c945e7</v>
       </c>
       <c r="B2" t="str">
         <v>iphone 13 pro</v>
